--- a/cards_excel.xlsx
+++ b/cards_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Desktop\Gorbinos Quest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Documents\GitHub\squeakincgames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508392F9-AE09-4333-BC14-7689A1A34371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AECECDF-DC4B-4667-BDA7-FEC4C5EF9F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BB8394-EF52-48F5-A788-81B0E26A37EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="191">
   <si>
     <t>Ref letter</t>
   </si>
@@ -279,9 +279,6 @@
     <t>VPs = 6 times number of pink tags</t>
   </si>
   <si>
-    <t>VPs = Number of 20 Talent coins times number of purple tags</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ' '</t>
   </si>
   <si>
@@ -318,45 +315,15 @@
     <t>1 Food</t>
   </si>
   <si>
-    <t>10 Talents</t>
-  </si>
-  <si>
     <t xml:space="preserve">Build: </t>
   </si>
   <si>
     <t>Region Names</t>
   </si>
   <si>
-    <t xml:space="preserve">Trade 1 income for 10 Talents ----or---- Trade 2 income for 20 Talents ----or---- Trade 3 income for 30 Talents. </t>
-  </si>
-  <si>
     <t>Purchase up to 2 technology cards. Place them in your discard.</t>
   </si>
   <si>
-    <t>Buy 2 types of resources ----or---- Sell 2 types of resources ----or---- Sell 1 and buy 1 type of resource (food=5T wood=7T coal=9T silver=15T gold=20T) (max Resource = 10)</t>
-  </si>
-  <si>
-    <t>Place all cards from your discard into your hand, keep this in your hand. Gain +2 income.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 12 Talents ----or---- Trade 2 income for 24 Talents ----or---- Trade 3 income for 36 Talents. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 11 Talents ----or---- Trade 2 income for 22 Talents ----or---- Trade 3 income for 33 Talents. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 13 Talents ----or---- Trade 2 income for 26 Talents ----or---- Trade 3 income for 39 Talents. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 14 Talents ----or---- Trade 2 income for 28 Talents ----or---- Trade 3 income for 42 Talents. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 15 Talents ----or---- Trade 2 income for 30 Talents ----or---- Trade 3 income for 45 Talents. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 16 Talents ----or---- Trade 2 income for 32 Talents ----or---- Trade 3 income for 48 Talents. </t>
-  </si>
-  <si>
     <t>Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city.</t>
   </si>
   <si>
@@ -372,9 +339,6 @@
     <t>Gain 1 Gold. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
   </si>
   <si>
-    <t>Gain 1 of any type of Resource. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
-  </si>
-  <si>
     <t>Gain 1 Food. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
   </si>
   <si>
@@ -492,10 +456,148 @@
     <t xml:space="preserve">Treachery: </t>
   </si>
   <si>
-    <t>Purchase a 'Build' card or build adjacent to one of your cities. Then Gain +3 income.</t>
-  </si>
-  <si>
     <t>least t0 most valuble</t>
+  </si>
+  <si>
+    <t>Trade 1 income for 10 ₡oins, Trade 2 income for 20 ₡oins or Trade 3 income for 30 ₡oins</t>
+  </si>
+  <si>
+    <t>VPs = Number of 20 ₡oin coins times number of purple tags</t>
+  </si>
+  <si>
+    <t>10 ₡oins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade 1 income for 13 ₡oins ----or---- Trade 2 income for 26 ₡oins ----or---- Trade 3 income for 39 ₡oins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade 1 income for 11 ₡oins ----or---- Trade 2 income for 22 ₡oins ----or---- Trade 3 income for 33 ₡oins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade 1 income for 12 ₡oins ----or---- Trade 2 income for 24 ₡oins ----or---- Trade 3 income for 36 ₡oins. </t>
+  </si>
+  <si>
+    <t>Choose one build action: Build Normal- Build adjacent to one of your cities. Build Close- Build adjacent to one of your cities switching the resource to one on the 'build close' deck. Cycle deck. Build Far- Build at a location on the 'build far' deck. Cycle deck. Then gain +3 income.</t>
+  </si>
+  <si>
+    <t>Trade 1 income for 20 ₡oins</t>
+  </si>
+  <si>
+    <t>Trade 2 income for 30 ₡oins</t>
+  </si>
+  <si>
+    <t>Trade 3 income for 40 ₡oins</t>
+  </si>
+  <si>
+    <t>Gain 10 ₡oins. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
+  </si>
+  <si>
+    <t>Sellers market 3. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=8₡ wood=11₡ coal=15₡ silver=21₡ gold=27₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=5₡ wood=7₡ coal=9₡ silver=15₡ gold=20₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Buyers market 3. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=3₡ wood=4₡ coal=4₡ silver=9₡ gold=13₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Sellers market 1. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=6₡ wood=9₡ coal=13₡ silver=19₡ gold=25₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Buyers market 1. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=4₡ wood=5₡ coal=6₡ silver=11₡ gold=15₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Sellers market 2. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=7₡ wood=10₡ coal=14₡ silver=20₡ gold=26₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Buyers market 2. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=4₡ wood=4₡ coal=5₡ silver=10₡ gold=14₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Place the top 7 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 4 cards from your discard into your hand. Always keep this card in your hand. Gain +1 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 5 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 6 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 7 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 5 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 6 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Choose one build action: Build Normal- Build adjacent to one of your cities. Build Close- Build adjacent to one of your cities switching the resource to one on the 'build close' deck. Cycle deck. Build Far- Build at a location on the 'build far' deck. Cycle deck. Then gain +4 income.</t>
+  </si>
+  <si>
+    <t>Build Normal- Build adjacent to one of your cities.  Then gain +5 income.</t>
+  </si>
+  <si>
+    <t>Build Far- Build at a location on the 'build far' deck. Cycle deck. Then gain +5 income.</t>
+  </si>
+  <si>
+    <t>Build Close- Build adjacent to one of your cities switching the resource to one on the 'build close' deck. Cycle deck. Then gain +5 income.</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>10 Coins</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>3 Food</t>
+  </si>
+  <si>
+    <t>3 Wood</t>
+  </si>
+  <si>
+    <t>3 Coal</t>
+  </si>
+  <si>
+    <t>3 Silver</t>
+  </si>
+  <si>
+    <t>3 Gold</t>
+  </si>
+  <si>
+    <t>30 ₡oins</t>
+  </si>
+  <si>
+    <t>Buy one type of resource from another player. (food=5₡ wood=7₡ coal=9₡ silver=15₡ gold=20₡) (Max resources = 10) (Max of 1 type = 5)</t>
+  </si>
+  <si>
+    <t>Play a card that's on the top of another players discard.</t>
+  </si>
+  <si>
+    <t>Steal 5 ₡oins from another player.</t>
+  </si>
+  <si>
+    <t>Remove a players city from the board and take a build action after. (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
+  </si>
+  <si>
+    <t>Remove a players city from the board. (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
+  </si>
+  <si>
+    <t>Remove a cities production capability. (remove the tile under the city, it no longer produces anything) (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
   </si>
 </sst>
 </file>
@@ -554,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,9 +664,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03CA7A-BA1F-4EAD-976F-D40294DFF6D8}">
-  <dimension ref="A1:W111"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,7 +991,7 @@
     <col min="6" max="6" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="169.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="250.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.140625" customWidth="1"/>
     <col min="15" max="15" width="57.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
@@ -948,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -985,10 +1084,10 @@
         <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
         <v>70</v>
@@ -1000,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1037,10 +1136,10 @@
         <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
         <v>71</v>
@@ -1049,10 +1148,10 @@
         <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="T3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1089,10 +1188,10 @@
         <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q4" t="s">
         <v>72</v>
@@ -1101,10 +1200,10 @@
         <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1141,7 +1240,7 @@
         <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="P5" t="s">
         <v>75</v>
@@ -1153,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="T5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1193,10 +1292,10 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q6" t="s">
         <v>74</v>
@@ -1208,7 +1307,7 @@
         <v>83</v>
       </c>
       <c r="T6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1245,7 +1344,7 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="P7" t="s">
         <v>73</v>
@@ -1257,10 +1356,10 @@
         <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="T7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1297,7 +1396,7 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1334,7 +1433,7 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1371,10 +1470,10 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1411,17 +1510,8 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1457,19 +1547,11 @@
         <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="R12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1505,19 +1587,14 @@
         <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" t="s">
         <v>74</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="S13" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1553,19 +1630,14 @@
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R14" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="S14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1601,19 +1673,14 @@
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="R15" t="s">
         <v>70</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="S15" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1649,21 +1716,16 @@
         <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="R16" t="s">
         <v>72</v>
       </c>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1697,21 +1759,16 @@
         <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="R17" t="s">
         <v>73</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1745,21 +1802,16 @@
         <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="R18" t="s">
         <v>71</v>
       </c>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1793,19 +1845,10 @@
         <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1839,19 +1882,10 @@
         <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1885,19 +1919,10 @@
         <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1931,19 +1956,10 @@
         <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1977,19 +1993,10 @@
         <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2023,19 +2030,10 @@
         <v>65</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2069,19 +2067,10 @@
         <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2115,19 +2104,10 @@
         <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2161,19 +2141,10 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2207,19 +2178,10 @@
         <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2253,19 +2215,10 @@
         <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2299,19 +2252,10 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2345,19 +2289,10 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2391,19 +2326,10 @@
         <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>155</v>
-      </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2437,19 +2363,10 @@
         <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>155</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2483,19 +2400,10 @@
         <v>65</v>
       </c>
       <c r="K34" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2529,19 +2437,10 @@
         <v>65</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
-      </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2575,19 +2474,10 @@
         <v>65</v>
       </c>
       <c r="K36" t="s">
-        <v>155</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -2621,19 +2511,10 @@
         <v>65</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2648,39 +2529,34 @@
         <v>T001</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Loan: Blue</v>
+        <v>Loan: pink</v>
       </c>
       <c r="H38" s="1" t="str">
         <f>F38</f>
-        <v>Blue</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>pink</v>
+      </c>
+      <c r="I38" t="s">
+        <v>146</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s">
-        <v>106</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2695,39 +2571,34 @@
         <v>T002</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+      <c r="F39" t="s">
+        <v>75</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Loan: Pink</v>
+        <v>Loan: purple</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" ref="H39:H79" si="2">F39</f>
-        <v>Pink</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>purple</v>
+      </c>
+      <c r="I39" t="s">
+        <v>146</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s">
-        <v>107</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2742,39 +2613,34 @@
         <v>T003</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Loan: Red</v>
+        <v>Loan: yellow</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Red</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>yellow</v>
+      </c>
+      <c r="I40" t="s">
+        <v>146</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s">
-        <v>108</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2789,39 +2655,34 @@
         <v>T004</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Loan: Purple</v>
+        <v>Loan: blue</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Purple</v>
-      </c>
-      <c r="I41" s="1" t="s">
+        <v>blue</v>
+      </c>
+      <c r="I41" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K41" t="s">
-        <v>109</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2836,39 +2697,34 @@
         <v>T005</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="F42" t="s">
+        <v>73</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Loan: Yellow</v>
+        <v>Loan: red</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Yellow</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>red</v>
+      </c>
+      <c r="I42" t="s">
+        <v>146</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s">
-        <v>105</v>
-      </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2883,39 +2739,34 @@
         <v>T006</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>71</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Loan: Green</v>
+        <v>Loan: green</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Green</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>green</v>
+      </c>
+      <c r="I43" t="s">
+        <v>146</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s">
-        <v>104</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2930,39 +2781,34 @@
         <v>T007</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>74</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Production: Blue</v>
+        <v>Production: pink</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Blue</v>
+        <v>pink</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="K44" t="s">
-        <v>113</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2977,39 +2823,34 @@
         <v>T008</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Production: Pink</v>
+        <v>Production: purple</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Pink</v>
+        <v>purple</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K45" t="s">
-        <v>114</v>
-      </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3024,39 +2865,34 @@
         <v>T009</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Production: Red</v>
+        <v>Production: yellow</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Red</v>
+        <v>yellow</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="K46" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3071,39 +2907,34 @@
         <v>T010</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Production: Purple</v>
+        <v>Production: blue</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Purple</v>
+        <v>blue</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s">
-        <v>116</v>
-      </c>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3118,39 +2949,34 @@
         <v>T011</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Production: Yellow</v>
+        <v>Production: red</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Yellow</v>
+        <v>red</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s">
-        <v>117</v>
-      </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3165,39 +2991,34 @@
         <v>T012</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>54</v>
+        <v>87</v>
+      </c>
+      <c r="F49" t="s">
+        <v>71</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Production: Green</v>
+        <v>Production: green</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Green</v>
+        <v>green</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s">
-        <v>118</v>
-      </c>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3212,37 +3033,34 @@
         <v>T013</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>74</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Trade: Blue</v>
+        <v>Trade: pink</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Blue</v>
+        <v>pink</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3257,37 +3075,34 @@
         <v>T014</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>75</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Trade: Pink</v>
+        <v>Trade: purple</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Pink</v>
+        <v>purple</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3302,37 +3117,34 @@
         <v>T015</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="F52" t="s">
+        <v>70</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Trade: Red</v>
+        <v>Trade: yellow</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Red</v>
+        <v>yellow</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3347,37 +3159,34 @@
         <v>T016</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="F53" t="s">
+        <v>72</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Trade: Purple</v>
+        <v>Trade: blue</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Purple</v>
+        <v>blue</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3392,37 +3201,34 @@
         <v>T017</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
+      </c>
+      <c r="F54" t="s">
+        <v>73</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Trade: Yellow</v>
+        <v>Trade: red</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Yellow</v>
+        <v>red</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K54" s="1"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3437,37 +3243,34 @@
         <v>T018</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="F55" t="s">
+        <v>71</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Trade: Green</v>
+        <v>Trade: green</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Green</v>
+        <v>green</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K55" s="1"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3482,37 +3285,34 @@
         <v>T019</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>74</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Development: Blue</v>
+        <v>Development: pink</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Blue</v>
+        <v>pink</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3527,37 +3327,34 @@
         <v>T020</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
+      </c>
+      <c r="F57" t="s">
+        <v>75</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Development: Pink</v>
+        <v>Development: purple</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Pink</v>
+        <v>purple</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3572,37 +3369,34 @@
         <v>T021</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="F58" t="s">
+        <v>70</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Development: Red</v>
+        <v>Development: yellow</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Red</v>
+        <v>yellow</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3617,37 +3411,34 @@
         <v>T022</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
+      </c>
+      <c r="F59" t="s">
+        <v>72</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Development: Purple</v>
+        <v>Development: blue</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Purple</v>
+        <v>blue</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3662,37 +3453,34 @@
         <v>T023</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
+      </c>
+      <c r="F60" t="s">
+        <v>73</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Development: Yellow</v>
+        <v>Development: red</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Yellow</v>
+        <v>red</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3707,37 +3495,34 @@
         <v>T024</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Development: Green</v>
+        <v>Development: green</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Green</v>
+        <v>green</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3752,37 +3537,34 @@
         <v>T025</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="F62" t="s">
+        <v>74</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Reset: Blue</v>
+        <v>Reset: pink</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Blue</v>
+        <v>pink</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3797,37 +3579,34 @@
         <v>T026</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="F63" t="s">
+        <v>75</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Reset: Pink</v>
+        <v>Reset: purple</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Pink</v>
+        <v>purple</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3842,37 +3621,34 @@
         <v>T027</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="F64" t="s">
+        <v>70</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Reset: Red</v>
+        <v>Reset: yellow</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Red</v>
+        <v>yellow</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3887,37 +3663,34 @@
         <v>T028</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
+        <v>72</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Reset: Purple</v>
+        <v>Reset: blue</v>
       </c>
       <c r="H65" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Purple</v>
+        <v>blue</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3932,533 +3705,479 @@
         <v>T029</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="F66" t="s">
+        <v>73</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Reset: Yellow</v>
+        <v>Reset: red</v>
       </c>
       <c r="H66" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Yellow</v>
+        <v>red</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+        <v>91</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="8" t="str">
-        <f t="shared" ref="D67:D109" si="3">B67&amp;C67</f>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D105" si="3">B67&amp;C67</f>
         <v>T030</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="7" t="str">
+      <c r="E67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G79" si="4">E67&amp;F67</f>
-        <v>Reset: Green</v>
+        <v>Reset: green</v>
       </c>
       <c r="H67" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Green</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J67" s="7" t="s">
+        <v>green</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="8" t="str">
+      <c r="D68" t="str">
         <f t="shared" si="3"/>
         <v>T031</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" s="7" t="str">
+      <c r="E68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Build: Blue</v>
+        <v>Build: pink</v>
       </c>
       <c r="H68" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Blue</v>
-      </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>pink</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="8" t="str">
+      <c r="D69" t="str">
         <f t="shared" si="3"/>
         <v>T032</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G69" s="7" t="str">
+      <c r="E69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Build: Pink</v>
+        <v>Build: purple</v>
       </c>
       <c r="H69" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Pink</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <v>purple</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="8" t="str">
+      <c r="D70" t="str">
         <f t="shared" si="3"/>
         <v>T033</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G70" s="7" t="str">
+      <c r="E70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Build: Red</v>
+        <v>Build: yellow</v>
       </c>
       <c r="H70" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Red</v>
-      </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+        <v>yellow</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="8" t="str">
+      <c r="D71" t="str">
         <f t="shared" si="3"/>
         <v>T034</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G71" s="7" t="str">
+      <c r="E71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Build: Purple</v>
+        <v>Build: blue</v>
       </c>
       <c r="H71" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Purple</v>
-      </c>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>blue</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D72" s="8" t="str">
+      <c r="D72" t="str">
         <f t="shared" si="3"/>
         <v>T035</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G72" s="7" t="str">
+      <c r="E72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Build: Yellow</v>
+        <v>Build: red</v>
       </c>
       <c r="H72" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Yellow</v>
-      </c>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>red</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D73" s="8" t="str">
+      <c r="D73" t="str">
         <f t="shared" si="3"/>
         <v>T036</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G73" s="7" t="str">
+      <c r="E73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Build: Green</v>
+        <v>Build: green</v>
       </c>
       <c r="H73" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Green</v>
-      </c>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>green</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" s="8" t="str">
+      <c r="C74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" t="str">
         <f t="shared" si="3"/>
         <v>T037</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G74" s="7" t="str">
+      <c r="E74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
+        <v>74</v>
+      </c>
+      <c r="G74" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Treachery: Blue</v>
+        <v>Treachery: pink</v>
       </c>
       <c r="H74" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Blue</v>
-      </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>pink</v>
+      </c>
+      <c r="I74" t="s">
+        <v>184</v>
+      </c>
+      <c r="K74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D75" s="8" t="str">
+      <c r="C75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" t="str">
         <f t="shared" si="3"/>
         <v>T038</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="7" t="str">
+      <c r="E75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
+        <v>75</v>
+      </c>
+      <c r="G75" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Treachery: Pink</v>
+        <v>Treachery: purple</v>
       </c>
       <c r="H75" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Pink</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>purple</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="8" t="str">
+      <c r="C76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="str">
         <f t="shared" si="3"/>
         <v>T039</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G76" s="7" t="str">
+      <c r="E76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Treachery: Red</v>
+        <v>Treachery: yellow</v>
       </c>
       <c r="H76" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Red</v>
-      </c>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+        <v>yellow</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="8" t="str">
+      <c r="C77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" t="str">
         <f t="shared" si="3"/>
         <v>T040</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G77" s="7" t="str">
+      <c r="E77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Treachery: Purple</v>
+        <v>Treachery: blue</v>
       </c>
       <c r="H77" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Purple</v>
-      </c>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>blue</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K77" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="8" t="str">
+      <c r="C78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="str">
         <f t="shared" si="3"/>
         <v>T041</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="7" t="str">
+      <c r="E78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Treachery: Yellow</v>
+        <v>Treachery: red</v>
       </c>
       <c r="H78" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Yellow</v>
-      </c>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>red</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -4466,40 +4185,35 @@
         <v>41</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="3"/>
         <v>T042</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>54</v>
+        <v>142</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>Treachery: Green</v>
+        <v>Treachery: green</v>
       </c>
       <c r="H79" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>Green</v>
-      </c>
-      <c r="I79" s="5"/>
+        <v>green</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K79" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4514,26 +4228,17 @@
         <v>A001</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G80" s="8" t="str">
+        <v>115</v>
+      </c>
+      <c r="G80" t="str">
         <f t="shared" ref="G80:G99" si="6">E80&amp;F80</f>
         <v>Build Close: Food or Wood</v>
       </c>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4548,26 +4253,17 @@
         <v>A002</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G81" s="8" t="str">
+        <v>127</v>
+      </c>
+      <c r="G81" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Food or Coal</v>
       </c>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4582,26 +4278,17 @@
         <v>A003</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G82" s="8" t="str">
+        <v>128</v>
+      </c>
+      <c r="G82" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Food or Silver</v>
       </c>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4616,26 +4303,17 @@
         <v>A004</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" s="8" t="str">
+        <v>129</v>
+      </c>
+      <c r="G83" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Food or Gold</v>
       </c>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4650,26 +4328,17 @@
         <v>A005</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G84" s="8" t="str">
+        <v>130</v>
+      </c>
+      <c r="G84" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Wood or Coal</v>
       </c>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4684,26 +4353,17 @@
         <v>A006</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G85" s="8" t="str">
+        <v>131</v>
+      </c>
+      <c r="G85" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Wood or Silver</v>
       </c>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4718,27 +4378,18 @@
         <v>A007</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G86" s="8" t="str">
+        <v>132</v>
+      </c>
+      <c r="G86" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Wood or Gold</v>
       </c>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -4752,64 +4403,42 @@
         <v>A008</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G87" s="8" t="str">
+        <v>133</v>
+      </c>
+      <c r="G87" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Coal or Silver</v>
       </c>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="8" t="str">
+      <c r="D88" t="str">
         <f t="shared" si="5"/>
         <v>A009</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G88" s="8" t="str">
+        <v>114</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" t="str">
         <f t="shared" si="6"/>
         <v>Build Close: Coal or Gold</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -4824,10 +4453,10 @@
         <v>A010</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G89" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4837,359 +4466,233 @@
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="8" t="str">
+      <c r="D90" t="str">
         <f t="shared" si="5"/>
         <v>A001</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G90" s="8" t="str">
+      <c r="E90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G90" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Misthaven</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="8" t="str">
+      <c r="D91" t="str">
         <f t="shared" si="5"/>
         <v>A002</v>
       </c>
-      <c r="E91" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G91" s="8" t="str">
+      <c r="E91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G91" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Stormholm</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="8" t="str">
+      <c r="D92" t="str">
         <f t="shared" si="5"/>
         <v>A003</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G92" s="8" t="str">
+      <c r="E92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G92" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Faeloria</v>
       </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="8" t="str">
+      <c r="D93" t="str">
         <f t="shared" si="5"/>
         <v>A004</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G93" s="8" t="str">
+      <c r="E93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Dragonspire</v>
       </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="8" t="str">
+      <c r="D94" t="str">
         <f t="shared" si="5"/>
         <v>A005</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G94" s="8" t="str">
+      <c r="E94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G94" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Ravenshadow</v>
       </c>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="8" t="str">
+      <c r="D95" t="str">
         <f t="shared" si="5"/>
         <v>D006</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G95" s="8" t="str">
+      <c r="E95" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G95" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Starhaven</v>
       </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="8" t="str">
+      <c r="D96" t="str">
         <f t="shared" si="5"/>
         <v>D007</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G96" s="8" t="str">
+      <c r="E96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G96" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Moonstone</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="8" t="str">
+      <c r="D97" t="str">
         <f t="shared" si="5"/>
         <v>D008</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G97" s="8" t="str">
+      <c r="E97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G97" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Elmspire</v>
       </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="8" t="str">
+      <c r="D98" t="str">
         <f t="shared" si="5"/>
         <v>D009</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G98" s="8" t="str">
+      <c r="E98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G98" t="str">
         <f t="shared" si="6"/>
         <v>Build Far: Drakewood</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -5204,10 +4707,10 @@
         <v>D010</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G99" s="5" t="str">
         <f t="shared" si="6"/>
@@ -5217,309 +4720,96 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="8" t="str">
+      <c r="D100" t="str">
         <f t="shared" si="3"/>
         <v>?001</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="8" t="str">
+      <c r="D101" t="str">
         <f t="shared" si="3"/>
         <v>?002</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="8" t="str">
+      <c r="D102" t="str">
         <f t="shared" si="3"/>
         <v>?003</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="8" t="str">
+      <c r="D103" t="str">
         <f t="shared" si="3"/>
         <v>?004</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="8" t="str">
+      <c r="D104" t="str">
         <f t="shared" si="3"/>
         <v>?005</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D105" s="8" t="str">
+      <c r="D105" t="str">
         <f t="shared" si="3"/>
         <v>?006</v>
       </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="8"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/cards_excel.xlsx
+++ b/cards_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Documents\GitHub\squeakincgames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AECECDF-DC4B-4667-BDA7-FEC4C5EF9F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB10512-89CB-471E-BD46-946DAD41D053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BB8394-EF52-48F5-A788-81B0E26A37EA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BB8394-EF52-48F5-A788-81B0E26A37EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="192">
   <si>
     <t>Ref letter</t>
   </si>
@@ -276,15 +276,9 @@
     <t>VPs = Number of cities times number of yellow tags</t>
   </si>
   <si>
-    <t>VPs = 6 times number of pink tags</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ' '</t>
   </si>
   <si>
-    <t>VPs = Number of resource production types times number of blue tags</t>
-  </si>
-  <si>
     <t xml:space="preserve">Loan: </t>
   </si>
   <si>
@@ -324,280 +318,289 @@
     <t>Purchase up to 2 technology cards. Place them in your discard.</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>cubes</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>owl</t>
+  </si>
+  <si>
+    <t>Food or Wood</t>
+  </si>
+  <si>
+    <t>Misthaven</t>
+  </si>
+  <si>
+    <t>Stormholm</t>
+  </si>
+  <si>
+    <t>Faeloria</t>
+  </si>
+  <si>
+    <t>Dragonspire</t>
+  </si>
+  <si>
+    <t>Ravenshadow</t>
+  </si>
+  <si>
+    <t>Starhaven</t>
+  </si>
+  <si>
+    <t>Moonstone</t>
+  </si>
+  <si>
+    <t>Elmspire</t>
+  </si>
+  <si>
+    <t>Drakewood</t>
+  </si>
+  <si>
+    <t>Goldendale</t>
+  </si>
+  <si>
+    <t>Food or Coal</t>
+  </si>
+  <si>
+    <t>Food or Silver</t>
+  </si>
+  <si>
+    <t>Food or Gold</t>
+  </si>
+  <si>
+    <t>Wood or Coal</t>
+  </si>
+  <si>
+    <t>Wood or Silver</t>
+  </si>
+  <si>
+    <t>Wood or Gold</t>
+  </si>
+  <si>
+    <t>Coal or Silver</t>
+  </si>
+  <si>
+    <t>Coal or Gold</t>
+  </si>
+  <si>
+    <t>Silver or Gold</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treachery: </t>
+  </si>
+  <si>
+    <t>least t0 most valuble</t>
+  </si>
+  <si>
+    <t>Trade 1 income for 10 ₡oins, Trade 2 income for 20 ₡oins or Trade 3 income for 30 ₡oins</t>
+  </si>
+  <si>
+    <t>VPs = Number of 20 ₡oin coins times number of purple tags</t>
+  </si>
+  <si>
+    <t>10 ₡oins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade 1 income for 13 ₡oins ----or---- Trade 2 income for 26 ₡oins ----or---- Trade 3 income for 39 ₡oins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade 1 income for 11 ₡oins ----or---- Trade 2 income for 22 ₡oins ----or---- Trade 3 income for 33 ₡oins. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trade 1 income for 12 ₡oins ----or---- Trade 2 income for 24 ₡oins ----or---- Trade 3 income for 36 ₡oins. </t>
+  </si>
+  <si>
+    <t>Choose one build action: Build Normal- Build adjacent to one of your cities. Build Close- Build adjacent to one of your cities switching the resource to one on the 'build close' deck. Cycle deck. Build Far- Build at a location on the 'build far' deck. Cycle deck. Then gain +3 income.</t>
+  </si>
+  <si>
+    <t>Trade 1 income for 20 ₡oins</t>
+  </si>
+  <si>
+    <t>Trade 2 income for 30 ₡oins</t>
+  </si>
+  <si>
+    <t>Trade 3 income for 40 ₡oins</t>
+  </si>
+  <si>
+    <t>Place the top 7 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 4 cards from your discard into your hand. Always keep this card in your hand. Gain +1 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 5 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 6 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 7 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 5 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>Place the top 6 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>10 Coins</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>3 Food</t>
+  </si>
+  <si>
+    <t>3 Wood</t>
+  </si>
+  <si>
+    <t>3 Coal</t>
+  </si>
+  <si>
+    <t>3 Silver</t>
+  </si>
+  <si>
+    <t>3 Gold</t>
+  </si>
+  <si>
+    <t>30 ₡oins</t>
+  </si>
+  <si>
+    <t>Play a card that's on the top of another players discard.</t>
+  </si>
+  <si>
+    <t>Steal 5 ₡oins from another player.</t>
+  </si>
+  <si>
+    <t>Remove a players city from the board and take a build action after. (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
+  </si>
+  <si>
+    <t>Remove a players city from the board. (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
+  </si>
+  <si>
+    <t>Remove a cities production capability. (remove the tile under the city, it no longer produces anything) (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource Build: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province Build: </t>
+  </si>
+  <si>
+    <t>Choose one build action: Normal Build- Build adjacent to one of your cities. Resource Build- Build adjacent to one of your cities switching the resource to one on the ‘Resource Build’ deck. Cycle deck. Province Build- Build at a location on the ‘Province Build’ deck. Cycle deck. Then gain +3 income.</t>
+  </si>
+  <si>
+    <t>Choose one build action: Normal Build- Build adjacent to one of your cities. Resource Build- Build adjacent to one of your cities switching the resource to one on the ‘Resource Build’ deck. Cycle deck. Province Build- Build at a location on the ‘Province Build’ deck. Cycle deck. Then gain +4 income.</t>
+  </si>
+  <si>
+    <t>Normal Build- Build adjacent to one of your cities.  Then gain +5 income.</t>
+  </si>
+  <si>
+    <t>Resource Build- Build adjacent to one of your cities switching the resource to one on the ‘Resource Build’ deck. Cycle deck. Then gain +5 income.</t>
+  </si>
+  <si>
+    <t>Province Build- Build at a location on the ‘Province Build’ deck. Cycle deck. Then gain +5 income.</t>
+  </si>
+  <si>
+    <t>Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=5₡ wood=7₡ coal=9₡ silver=15₡ gold=20₡)</t>
+  </si>
+  <si>
     <t>Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city.</t>
   </si>
   <si>
-    <t>VPs = Number of provinces times number of green tags</t>
-  </si>
-  <si>
-    <t>VPs = Number of provinces where you have the most cities times number of red tags</t>
-  </si>
-  <si>
-    <t>Gain 1 Silver. Choose one provinces. Each city in that provinces produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
-  </si>
-  <si>
-    <t>Gain 1 Gold. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
-  </si>
-  <si>
-    <t>Gain 1 Food. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
-  </si>
-  <si>
-    <t>Gain 1 Wood. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
-  </si>
-  <si>
-    <t>Gain 1 Coal. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>cubes</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>castle</t>
-  </si>
-  <si>
-    <t>owl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Close: </t>
-  </si>
-  <si>
-    <t>Food or Wood</t>
-  </si>
-  <si>
-    <t>Misthaven</t>
-  </si>
-  <si>
-    <t>Stormholm</t>
-  </si>
-  <si>
-    <t>Faeloria</t>
-  </si>
-  <si>
-    <t>Dragonspire</t>
-  </si>
-  <si>
-    <t>Ravenshadow</t>
-  </si>
-  <si>
-    <t>Starhaven</t>
-  </si>
-  <si>
-    <t>Moonstone</t>
-  </si>
-  <si>
-    <t>Elmspire</t>
-  </si>
-  <si>
-    <t>Drakewood</t>
-  </si>
-  <si>
-    <t>Goldendale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build Far: </t>
-  </si>
-  <si>
-    <t>Food or Coal</t>
-  </si>
-  <si>
-    <t>Food or Silver</t>
-  </si>
-  <si>
-    <t>Food or Gold</t>
-  </si>
-  <si>
-    <t>Wood or Coal</t>
-  </si>
-  <si>
-    <t>Wood or Silver</t>
-  </si>
-  <si>
-    <t>Wood or Gold</t>
-  </si>
-  <si>
-    <t>Coal or Silver</t>
-  </si>
-  <si>
-    <t>Coal or Gold</t>
-  </si>
-  <si>
-    <t>Silver or Gold</t>
-  </si>
-  <si>
-    <t>037</t>
-  </si>
-  <si>
-    <t>038</t>
-  </si>
-  <si>
-    <t>039</t>
-  </si>
-  <si>
-    <t>040</t>
-  </si>
-  <si>
-    <t>041</t>
-  </si>
-  <si>
-    <t>042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treachery: </t>
-  </si>
-  <si>
-    <t>least t0 most valuble</t>
-  </si>
-  <si>
-    <t>Trade 1 income for 10 ₡oins, Trade 2 income for 20 ₡oins or Trade 3 income for 30 ₡oins</t>
-  </si>
-  <si>
-    <t>VPs = Number of 20 ₡oin coins times number of purple tags</t>
-  </si>
-  <si>
-    <t>10 ₡oins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 13 ₡oins ----or---- Trade 2 income for 26 ₡oins ----or---- Trade 3 income for 39 ₡oins. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 11 ₡oins ----or---- Trade 2 income for 22 ₡oins ----or---- Trade 3 income for 33 ₡oins. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade 1 income for 12 ₡oins ----or---- Trade 2 income for 24 ₡oins ----or---- Trade 3 income for 36 ₡oins. </t>
-  </si>
-  <si>
-    <t>Choose one build action: Build Normal- Build adjacent to one of your cities. Build Close- Build adjacent to one of your cities switching the resource to one on the 'build close' deck. Cycle deck. Build Far- Build at a location on the 'build far' deck. Cycle deck. Then gain +3 income.</t>
-  </si>
-  <si>
-    <t>Trade 1 income for 20 ₡oins</t>
-  </si>
-  <si>
-    <t>Trade 2 income for 30 ₡oins</t>
-  </si>
-  <si>
-    <t>Trade 3 income for 40 ₡oins</t>
-  </si>
-  <si>
-    <t>Gain 10 ₡oins. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city. (max Resource = 10)</t>
-  </si>
-  <si>
-    <t>Sellers market 3. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=8₡ wood=11₡ coal=15₡ silver=21₡ gold=27₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=5₡ wood=7₡ coal=9₡ silver=15₡ gold=20₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Buyers market 3. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=3₡ wood=4₡ coal=4₡ silver=9₡ gold=13₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Sellers market 1. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=6₡ wood=9₡ coal=13₡ silver=19₡ gold=25₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Buyers market 1. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=4₡ wood=5₡ coal=6₡ silver=11₡ gold=15₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Sellers market 2. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=7₡ wood=10₡ coal=14₡ silver=20₡ gold=26₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Buyers market 2. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=4₡ wood=4₡ coal=5₡ silver=10₡ gold=14₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Place the top 7 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
-  </si>
-  <si>
-    <t>Place the top 4 cards from your discard into your hand. Always keep this card in your hand. Gain +1 income. Cycle both build decks.</t>
-  </si>
-  <si>
-    <t>Place the top 5 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
-  </si>
-  <si>
-    <t>Place the top 6 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
-  </si>
-  <si>
-    <t>Place the top 7 cards from your discard into your hand, then discard this card. Gain +2 income. Cycle both build decks.</t>
-  </si>
-  <si>
-    <t>Place the top 5 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
-  </si>
-  <si>
-    <t>Place the top 6 cards from your discard into your hand, then discard this card. Gain +3 income. Cycle both build decks.</t>
-  </si>
-  <si>
-    <t>Choose one build action: Build Normal- Build adjacent to one of your cities. Build Close- Build adjacent to one of your cities switching the resource to one on the 'build close' deck. Cycle deck. Build Far- Build at a location on the 'build far' deck. Cycle deck. Then gain +4 income.</t>
-  </si>
-  <si>
-    <t>Build Normal- Build adjacent to one of your cities.  Then gain +5 income.</t>
-  </si>
-  <si>
-    <t>Build Far- Build at a location on the 'build far' deck. Cycle deck. Then gain +5 income.</t>
-  </si>
-  <si>
-    <t>Build Close- Build adjacent to one of your cities switching the resource to one on the 'build close' deck. Cycle deck. Then gain +5 income.</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>10 Coins</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>3 Food</t>
-  </si>
-  <si>
-    <t>3 Wood</t>
-  </si>
-  <si>
-    <t>3 Coal</t>
-  </si>
-  <si>
-    <t>3 Silver</t>
-  </si>
-  <si>
-    <t>3 Gold</t>
-  </si>
-  <si>
-    <t>30 ₡oins</t>
-  </si>
-  <si>
-    <t>Buy one type of resource from another player. (food=5₡ wood=7₡ coal=9₡ silver=15₡ gold=20₡) (Max resources = 10) (Max of 1 type = 5)</t>
-  </si>
-  <si>
-    <t>Play a card that's on the top of another players discard.</t>
-  </si>
-  <si>
-    <t>Steal 5 ₡oins from another player.</t>
-  </si>
-  <si>
-    <t>Remove a players city from the board and take a build action after. (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
-  </si>
-  <si>
-    <t>Remove a players city from the board. (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
-  </si>
-  <si>
-    <t>Remove a cities production capability. (remove the tile under the city, it no longer produces anything) (usable only once, place on the side of your discard after use to indicate that it's been played)</t>
+    <t>Gain 1 Silver. Choose one provinces. Each city in that provinces produces its corresponding resource which goes to the player that built that city.</t>
+  </si>
+  <si>
+    <t>Gain 1 Gold. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city.</t>
+  </si>
+  <si>
+    <t>Gain 10 ₡oins. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city.</t>
+  </si>
+  <si>
+    <t>Gain 1 Food. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city.</t>
+  </si>
+  <si>
+    <t>Gain 1 Wood. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city.</t>
+  </si>
+  <si>
+    <t>Gain 1 Coal. Choose one province. Each city in that province produces its corresponding resource which goes to the player that built that city.</t>
+  </si>
+  <si>
+    <t>Sellers market 3. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=8₡ wood=11₡ coal=15₡ silver=21₡ gold=27₡)</t>
+  </si>
+  <si>
+    <t>Buyers market 3. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=3₡ wood=4₡ coal=4₡ silver=9₡ gold=13₡)</t>
+  </si>
+  <si>
+    <t>Sellers market 1. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=6₡ wood=9₡ coal=13₡ silver=19₡ gold=25₡)</t>
+  </si>
+  <si>
+    <t>Buyers market 1. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=4₡ wood=5₡ coal=6₡ silver=11₡ gold=15₡)</t>
+  </si>
+  <si>
+    <t>Sellers market 2. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=7₡ wood=10₡ coal=14₡ silver=20₡ gold=26₡)</t>
+  </si>
+  <si>
+    <t>Buyers market 2. Buy 2 types of resources or Sell 2 types of resources or Sell 1 and buy 1 type of resource (food=4₡ wood=4₡ coal=5₡ silver=10₡ gold=14₡)</t>
+  </si>
+  <si>
+    <t>Buy one type of resource from another player. (food=5₡ wood=7₡ coal=9₡ silver=15₡ gold=20₡)</t>
+  </si>
+  <si>
+    <t>VPs = Number of provinces where you have the most cities times number of red tags x3</t>
+  </si>
+  <si>
+    <t>VPs = Number of resource production types times number of blue tags x2</t>
+  </si>
+  <si>
+    <t>VPs = 8 times number of pink tags</t>
+  </si>
+  <si>
+    <t>VPs = Number of provinces times number of green tags x2</t>
   </si>
 </sst>
 </file>
@@ -980,18 +983,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03CA7A-BA1F-4EAD-976F-D40294DFF6D8}">
   <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="250.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.140625" customWidth="1"/>
     <col min="15" max="15" width="57.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
@@ -1047,7 +1050,7 @@
         <v>68</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1084,10 +1087,10 @@
         <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
         <v>70</v>
@@ -1099,7 +1102,7 @@
         <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1136,10 +1139,10 @@
         <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q3" t="s">
         <v>71</v>
@@ -1148,10 +1151,10 @@
         <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="T3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1188,10 +1191,10 @@
         <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
         <v>72</v>
@@ -1200,10 +1203,10 @@
         <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="T4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1240,7 +1243,7 @@
         <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P5" t="s">
         <v>75</v>
@@ -1252,10 +1255,10 @@
         <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="T5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1292,10 +1295,10 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s">
         <v>74</v>
@@ -1304,10 +1307,10 @@
         <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="T6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1344,7 +1347,7 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P7" t="s">
         <v>73</v>
@@ -1356,10 +1359,10 @@
         <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="T7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1396,7 +1399,7 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1433,7 +1436,7 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1470,10 +1473,10 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1510,7 +1513,7 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1547,10 +1550,10 @@
         <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="R12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1587,13 +1590,13 @@
         <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="R13" t="s">
         <v>74</v>
       </c>
       <c r="S13" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1630,13 +1633,13 @@
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="R14" t="s">
         <v>75</v>
       </c>
       <c r="S14" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1673,13 +1676,13 @@
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="R15" t="s">
         <v>70</v>
       </c>
       <c r="S15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1716,13 +1719,13 @@
         <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="R16" t="s">
         <v>72</v>
       </c>
       <c r="S16" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1759,13 +1762,13 @@
         <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="R17" t="s">
         <v>73</v>
       </c>
       <c r="S17" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1802,13 +1805,13 @@
         <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="R18" t="s">
         <v>71</v>
       </c>
       <c r="S18" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1845,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1882,7 +1885,7 @@
         <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1919,7 +1922,7 @@
         <v>65</v>
       </c>
       <c r="K21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1956,7 +1959,7 @@
         <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1993,7 +1996,7 @@
         <v>65</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -2030,7 +2033,7 @@
         <v>65</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2067,7 +2070,7 @@
         <v>65</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -2104,7 +2107,7 @@
         <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -2141,7 +2144,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -2178,7 +2181,7 @@
         <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -2215,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2252,7 +2255,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2289,7 +2292,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2326,7 +2329,7 @@
         <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2363,7 +2366,7 @@
         <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2400,7 +2403,7 @@
         <v>65</v>
       </c>
       <c r="K34" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2437,7 +2440,7 @@
         <v>65</v>
       </c>
       <c r="K35" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2474,7 +2477,7 @@
         <v>65</v>
       </c>
       <c r="K36" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2511,7 +2514,7 @@
         <v>65</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2529,7 +2532,7 @@
         <v>T001</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
         <v>74</v>
@@ -2543,13 +2546,13 @@
         <v>pink</v>
       </c>
       <c r="I38" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K38" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2571,7 +2574,7 @@
         <v>T002</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
         <v>75</v>
@@ -2585,13 +2588,13 @@
         <v>purple</v>
       </c>
       <c r="I39" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2613,7 +2616,7 @@
         <v>T003</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
         <v>70</v>
@@ -2627,13 +2630,13 @@
         <v>yellow</v>
       </c>
       <c r="I40" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2655,7 +2658,7 @@
         <v>T004</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
         <v>72</v>
@@ -2669,13 +2672,13 @@
         <v>blue</v>
       </c>
       <c r="I41" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2697,7 +2700,7 @@
         <v>T005</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
         <v>73</v>
@@ -2711,13 +2714,13 @@
         <v>red</v>
       </c>
       <c r="I42" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2739,7 +2742,7 @@
         <v>T006</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
         <v>71</v>
@@ -2753,13 +2756,13 @@
         <v>green</v>
       </c>
       <c r="I43" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2781,7 +2784,7 @@
         <v>T007</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
         <v>74</v>
@@ -2795,13 +2798,13 @@
         <v>pink</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2823,7 +2826,7 @@
         <v>T008</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
         <v>75</v>
@@ -2837,13 +2840,13 @@
         <v>purple</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2865,7 +2868,7 @@
         <v>T009</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
         <v>70</v>
@@ -2879,13 +2882,13 @@
         <v>yellow</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2907,7 +2910,7 @@
         <v>T010</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
         <v>72</v>
@@ -2921,13 +2924,13 @@
         <v>blue</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2949,7 +2952,7 @@
         <v>T011</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
         <v>73</v>
@@ -2963,13 +2966,13 @@
         <v>red</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2991,7 +2994,7 @@
         <v>T012</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F49" t="s">
         <v>71</v>
@@ -3005,13 +3008,13 @@
         <v>green</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="K49" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3033,7 +3036,7 @@
         <v>T013</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F50" t="s">
         <v>74</v>
@@ -3047,13 +3050,13 @@
         <v>pink</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3075,7 +3078,7 @@
         <v>T014</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
         <v>75</v>
@@ -3089,13 +3092,13 @@
         <v>purple</v>
       </c>
       <c r="I51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="K51" s="1" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3117,7 +3120,7 @@
         <v>T015</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
         <v>70</v>
@@ -3131,13 +3134,13 @@
         <v>yellow</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3159,7 +3162,7 @@
         <v>T016</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
         <v>72</v>
@@ -3173,13 +3176,13 @@
         <v>blue</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3201,7 +3204,7 @@
         <v>T017</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
         <v>73</v>
@@ -3215,13 +3218,13 @@
         <v>red</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3243,7 +3246,7 @@
         <v>T018</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F55" t="s">
         <v>71</v>
@@ -3257,13 +3260,13 @@
         <v>green</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3285,7 +3288,7 @@
         <v>T019</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
         <v>74</v>
@@ -3299,13 +3302,13 @@
         <v>pink</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3327,7 +3330,7 @@
         <v>T020</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
         <v>75</v>
@@ -3341,13 +3344,13 @@
         <v>purple</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3369,7 +3372,7 @@
         <v>T021</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
         <v>70</v>
@@ -3383,13 +3386,13 @@
         <v>yellow</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3411,7 +3414,7 @@
         <v>T022</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s">
         <v>72</v>
@@ -3425,13 +3428,13 @@
         <v>blue</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3453,7 +3456,7 @@
         <v>T023</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s">
         <v>73</v>
@@ -3467,13 +3470,13 @@
         <v>red</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3495,7 +3498,7 @@
         <v>T024</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s">
         <v>71</v>
@@ -3509,13 +3512,13 @@
         <v>green</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3537,7 +3540,7 @@
         <v>T025</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s">
         <v>74</v>
@@ -3551,13 +3554,13 @@
         <v>pink</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3579,7 +3582,7 @@
         <v>T026</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s">
         <v>75</v>
@@ -3593,13 +3596,13 @@
         <v>purple</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3621,7 +3624,7 @@
         <v>T027</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
         <v>70</v>
@@ -3635,13 +3638,13 @@
         <v>yellow</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3663,7 +3666,7 @@
         <v>T028</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
         <v>72</v>
@@ -3677,13 +3680,13 @@
         <v>blue</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3705,7 +3708,7 @@
         <v>T029</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
         <v>73</v>
@@ -3719,13 +3722,13 @@
         <v>red</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3747,7 +3750,7 @@
         <v>T030</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s">
         <v>71</v>
@@ -3761,13 +3764,13 @@
         <v>green</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3789,7 +3792,7 @@
         <v>T031</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" t="s">
         <v>74</v>
@@ -3803,10 +3806,10 @@
         <v>pink</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K68" t="s">
         <v>169</v>
@@ -3827,7 +3830,7 @@
         <v>T032</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F69" t="s">
         <v>75</v>
@@ -3841,10 +3844,10 @@
         <v>purple</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s">
         <v>170</v>
@@ -3865,7 +3868,7 @@
         <v>T033</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F70" t="s">
         <v>70</v>
@@ -3879,13 +3882,13 @@
         <v>yellow</v>
       </c>
       <c r="I70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -3903,7 +3906,7 @@
         <v>T034</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
         <v>72</v>
@@ -3917,13 +3920,13 @@
         <v>blue</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -3941,7 +3944,7 @@
         <v>T035</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
         <v>73</v>
@@ -3955,13 +3958,13 @@
         <v>red</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -3979,7 +3982,7 @@
         <v>T036</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" t="s">
         <v>71</v>
@@ -3993,10 +3996,10 @@
         <v>green</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K73" t="s">
         <v>169</v>
@@ -4010,14 +4013,14 @@
         <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="3"/>
         <v>T037</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
         <v>74</v>
@@ -4031,10 +4034,10 @@
         <v>pink</v>
       </c>
       <c r="I74" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4045,14 +4048,14 @@
         <v>41</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
         <v>T038</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F75" t="s">
         <v>75</v>
@@ -4066,10 +4069,10 @@
         <v>purple</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="K75" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4080,14 +4083,14 @@
         <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
         <v>T039</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F76" t="s">
         <v>70</v>
@@ -4101,10 +4104,10 @@
         <v>yellow</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="K76" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4115,14 +4118,14 @@
         <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="3"/>
         <v>T040</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F77" t="s">
         <v>72</v>
@@ -4136,10 +4139,10 @@
         <v>blue</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="K77" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -4150,14 +4153,14 @@
         <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="3"/>
         <v>T041</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F78" t="s">
         <v>73</v>
@@ -4171,10 +4174,10 @@
         <v>red</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="K78" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -4185,14 +4188,14 @@
         <v>41</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="3"/>
         <v>T042</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>71</v>
@@ -4206,11 +4209,11 @@
         <v>green</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4228,14 +4231,14 @@
         <v>A001</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" ref="G80:G99" si="6">E80&amp;F80</f>
-        <v>Build Close: Food or Wood</v>
+        <v>Resource Build: Food or Wood</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4253,14 +4256,14 @@
         <v>A002</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Food or Coal</v>
+        <v>Resource Build: Food or Coal</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4278,14 +4281,14 @@
         <v>A003</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Food or Silver</v>
+        <v>Resource Build: Food or Silver</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4303,14 +4306,14 @@
         <v>A004</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Food or Gold</v>
+        <v>Resource Build: Food or Gold</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4328,14 +4331,14 @@
         <v>A005</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Wood or Coal</v>
+        <v>Resource Build: Wood or Coal</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4353,14 +4356,14 @@
         <v>A006</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Wood or Silver</v>
+        <v>Resource Build: Wood or Silver</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,14 +4381,14 @@
         <v>A007</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Wood or Gold</v>
+        <v>Resource Build: Wood or Gold</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4403,14 +4406,14 @@
         <v>A008</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Coal or Silver</v>
+        <v>Resource Build: Coal or Silver</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4428,14 +4431,14 @@
         <v>A009</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Coal or Gold</v>
+        <v>Resource Build: Coal or Gold</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4452,15 +4455,15 @@
         <f t="shared" si="5"/>
         <v>A010</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>114</v>
+      <c r="E89" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G89" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Build Close: Silver or Gold</v>
+        <v>Resource Build: Silver or Gold</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -4482,14 +4485,14 @@
         <v>A001</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Misthaven</v>
+        <v>Province Build: Misthaven</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4507,14 +4510,14 @@
         <v>A002</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Stormholm</v>
+        <v>Province Build: Stormholm</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4532,14 +4535,14 @@
         <v>A003</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Faeloria</v>
+        <v>Province Build: Faeloria</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4557,14 +4560,14 @@
         <v>A004</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Dragonspire</v>
+        <v>Province Build: Dragonspire</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4582,14 +4585,14 @@
         <v>A005</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Ravenshadow</v>
+        <v>Province Build: Ravenshadow</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4607,14 +4610,14 @@
         <v>D006</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Starhaven</v>
+        <v>Province Build: Starhaven</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4632,14 +4635,14 @@
         <v>D007</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Moonstone</v>
+        <v>Province Build: Moonstone</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -4657,14 +4660,14 @@
         <v>D008</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Elmspire</v>
+        <v>Province Build: Elmspire</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -4682,14 +4685,14 @@
         <v>D009</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Drakewood</v>
+        <v>Province Build: Drakewood</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -4706,15 +4709,15 @@
         <f t="shared" si="5"/>
         <v>D010</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>126</v>
+      <c r="E99" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G99" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>Build Far: Goldendale</v>
+        <v>Province Build: Goldendale</v>
       </c>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>

--- a/cards_excel.xlsx
+++ b/cards_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Documents\GitHub\squeakincgames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB10512-89CB-471E-BD46-946DAD41D053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BC9A55-D33F-4BD8-8C30-5FC38F60D5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BB8394-EF52-48F5-A788-81B0E26A37EA}"/>
   </bookViews>
@@ -420,9 +420,6 @@
     <t xml:space="preserve">Treachery: </t>
   </si>
   <si>
-    <t>least t0 most valuble</t>
-  </si>
-  <si>
     <t>Trade 1 income for 10 ₡oins, Trade 2 income for 20 ₡oins or Trade 3 income for 30 ₡oins</t>
   </si>
   <si>
@@ -597,10 +594,13 @@
     <t>VPs = Number of resource production types times number of blue tags x2</t>
   </si>
   <si>
-    <t>VPs = 8 times number of pink tags</t>
-  </si>
-  <si>
     <t>VPs = Number of provinces times number of green tags x2</t>
+  </si>
+  <si>
+    <t>VPs = 6 times number of pink tags</t>
+  </si>
+  <si>
+    <t>least to most valuble</t>
   </si>
 </sst>
 </file>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03CA7A-BA1F-4EAD-976F-D40294DFF6D8}">
   <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
         <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>83</v>
@@ -1139,7 +1139,7 @@
         <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>83</v>
@@ -1151,7 +1151,7 @@
         <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T3" t="s">
         <v>102</v>
@@ -1191,7 +1191,7 @@
         <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P4" t="s">
         <v>83</v>
@@ -1203,7 +1203,7 @@
         <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T4" t="s">
         <v>98</v>
@@ -1243,7 +1243,7 @@
         <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P5" t="s">
         <v>75</v>
@@ -1255,7 +1255,7 @@
         <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T5" t="s">
         <v>100</v>
@@ -1295,7 +1295,7 @@
         <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P6" t="s">
         <v>83</v>
@@ -1347,7 +1347,7 @@
         <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P7" t="s">
         <v>73</v>
@@ -1359,7 +1359,7 @@
         <v>81</v>
       </c>
       <c r="S7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T7" t="s">
         <v>101</v>
@@ -1399,7 +1399,7 @@
         <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>65</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>65</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>95</v>
@@ -1513,7 +1513,7 @@
         <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1550,10 +1550,10 @@
         <v>65</v>
       </c>
       <c r="K12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1590,13 +1590,13 @@
         <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R13" t="s">
         <v>74</v>
       </c>
       <c r="S13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1633,13 +1633,13 @@
         <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R14" t="s">
         <v>75</v>
       </c>
       <c r="S14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1676,13 +1676,13 @@
         <v>65</v>
       </c>
       <c r="K15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R15" t="s">
         <v>70</v>
       </c>
       <c r="S15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1719,13 +1719,13 @@
         <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R16" t="s">
         <v>72</v>
       </c>
       <c r="S16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1762,13 +1762,13 @@
         <v>65</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R17" t="s">
         <v>73</v>
       </c>
       <c r="S17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1805,13 +1805,13 @@
         <v>65</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R18" t="s">
         <v>71</v>
       </c>
       <c r="S18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -2144,7 +2144,7 @@
         <v>65</v>
       </c>
       <c r="K27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>65</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
         <v>65</v>
       </c>
       <c r="K30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>65</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
         <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>65</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>65</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2477,7 +2477,7 @@
         <v>65</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2514,7 +2514,7 @@
         <v>65</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2546,13 +2546,13 @@
         <v>pink</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2588,13 +2588,13 @@
         <v>purple</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2630,13 +2630,13 @@
         <v>yellow</v>
       </c>
       <c r="I40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2672,13 +2672,13 @@
         <v>blue</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2714,13 +2714,13 @@
         <v>red</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2756,13 +2756,13 @@
         <v>green</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2801,10 +2801,10 @@
         <v>90</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2846,7 +2846,7 @@
         <v>93</v>
       </c>
       <c r="K45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2888,7 +2888,7 @@
         <v>91</v>
       </c>
       <c r="K46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2930,7 +2930,7 @@
         <v>90</v>
       </c>
       <c r="K47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2972,7 +2972,7 @@
         <v>89</v>
       </c>
       <c r="K48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3014,7 +3014,7 @@
         <v>92</v>
       </c>
       <c r="K49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3053,10 +3053,10 @@
         <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3098,7 +3098,7 @@
         <v>93</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3140,7 +3140,7 @@
         <v>91</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3182,7 +3182,7 @@
         <v>90</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3224,7 +3224,7 @@
         <v>89</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3266,7 +3266,7 @@
         <v>92</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3305,7 +3305,7 @@
         <v>92</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>96</v>
@@ -3557,10 +3557,10 @@
         <v>93</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3602,7 +3602,7 @@
         <v>93</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3644,7 +3644,7 @@
         <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3686,7 +3686,7 @@
         <v>90</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3728,7 +3728,7 @@
         <v>89</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3770,7 +3770,7 @@
         <v>92</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3809,10 +3809,10 @@
         <v>89</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>93</v>
       </c>
       <c r="K69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>91</v>
       </c>
       <c r="K70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -3926,7 +3926,7 @@
         <v>90</v>
       </c>
       <c r="K71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -3964,7 +3964,7 @@
         <v>89</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
         <v>92</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -4034,10 +4034,10 @@
         <v>pink</v>
       </c>
       <c r="I74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4069,10 +4069,10 @@
         <v>purple</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4104,10 +4104,10 @@
         <v>yellow</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4139,10 +4139,10 @@
         <v>blue</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -4174,10 +4174,10 @@
         <v>red</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -4209,11 +4209,11 @@
         <v>green</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4231,7 +4231,7 @@
         <v>A001</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>104</v>
@@ -4256,7 +4256,7 @@
         <v>A002</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>115</v>
@@ -4281,7 +4281,7 @@
         <v>A003</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>116</v>
@@ -4306,7 +4306,7 @@
         <v>A004</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>117</v>
@@ -4331,7 +4331,7 @@
         <v>A005</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>118</v>
@@ -4356,7 +4356,7 @@
         <v>A006</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>119</v>
@@ -4381,7 +4381,7 @@
         <v>A007</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>120</v>
@@ -4406,7 +4406,7 @@
         <v>A008</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>121</v>
@@ -4431,7 +4431,7 @@
         <v>A009</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>122</v>
@@ -4456,7 +4456,7 @@
         <v>A010</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>123</v>
@@ -4485,7 +4485,7 @@
         <v>A001</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>105</v>
@@ -4510,7 +4510,7 @@
         <v>A002</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>106</v>
@@ -4535,7 +4535,7 @@
         <v>A003</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>107</v>
@@ -4560,7 +4560,7 @@
         <v>A004</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>108</v>
@@ -4585,7 +4585,7 @@
         <v>A005</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>109</v>
@@ -4610,7 +4610,7 @@
         <v>D006</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>110</v>
@@ -4635,7 +4635,7 @@
         <v>D007</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>111</v>
@@ -4660,7 +4660,7 @@
         <v>D008</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>112</v>
@@ -4685,7 +4685,7 @@
         <v>D009</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>113</v>
@@ -4710,7 +4710,7 @@
         <v>D010</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>114</v>

--- a/cards_excel.xlsx
+++ b/cards_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Documents\GitHub\squeakincgames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BC9A55-D33F-4BD8-8C30-5FC38F60D5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF3A8CC-A9FC-4E3B-BDD2-EE0D1CCDE3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BB8394-EF52-48F5-A788-81B0E26A37EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="193">
   <si>
     <t>Ref letter</t>
   </si>
@@ -219,9 +219,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>()</t>
   </si>
   <si>
@@ -601,6 +598,12 @@
   </si>
   <si>
     <t>least to most valuble</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -983,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03CA7A-BA1F-4EAD-976F-D40294DFF6D8}">
   <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,19 +1041,19 @@
         <v>61</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1081,28 +1084,28 @@
         <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1133,28 +1136,28 @@
         <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1185,28 +1188,28 @@
         <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1237,28 +1240,28 @@
         <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1289,28 +1292,28 @@
         <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1341,28 +1344,28 @@
         <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7" t="s">
         <v>131</v>
       </c>
-      <c r="P7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" t="s">
-        <v>81</v>
-      </c>
-      <c r="S7" t="s">
-        <v>132</v>
-      </c>
       <c r="T7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1393,13 +1396,13 @@
         <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1430,13 +1433,13 @@
         <v>54</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1467,16 +1470,16 @@
         <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1507,13 +1510,13 @@
         <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1544,16 +1547,16 @@
         <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1584,19 +1587,19 @@
         <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1627,19 +1630,19 @@
         <v>55</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1670,19 +1673,19 @@
         <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1713,19 +1716,19 @@
         <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1756,19 +1759,19 @@
         <v>55</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1799,19 +1802,19 @@
         <v>55</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1842,13 +1845,13 @@
         <v>55</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1879,13 +1882,13 @@
         <v>56</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1916,13 +1919,13 @@
         <v>56</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1953,13 +1956,13 @@
         <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1990,13 +1993,13 @@
         <v>56</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -2027,13 +2030,13 @@
         <v>56</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2064,13 +2067,13 @@
         <v>56</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -2101,13 +2104,13 @@
         <v>57</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -2138,13 +2141,13 @@
         <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -2175,13 +2178,13 @@
         <v>57</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -2212,13 +2215,13 @@
         <v>57</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2249,13 +2252,13 @@
         <v>57</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2286,13 +2289,13 @@
         <v>57</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2323,13 +2326,13 @@
         <v>58</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2360,13 +2363,13 @@
         <v>58</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2397,13 +2400,13 @@
         <v>58</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2434,13 +2437,13 @@
         <v>58</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2471,13 +2474,13 @@
         <v>58</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2508,13 +2511,13 @@
         <v>58</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2532,10 +2535,10 @@
         <v>T001</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2546,13 +2549,13 @@
         <v>pink</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2574,10 +2577,10 @@
         <v>T002</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2588,13 +2591,13 @@
         <v>purple</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2616,10 +2619,10 @@
         <v>T003</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2630,13 +2633,13 @@
         <v>yellow</v>
       </c>
       <c r="I40" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" t="s">
         <v>133</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" t="s">
-        <v>134</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2658,10 +2661,10 @@
         <v>T004</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2672,13 +2675,13 @@
         <v>blue</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2700,10 +2703,10 @@
         <v>T005</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2714,13 +2717,13 @@
         <v>red</v>
       </c>
       <c r="I42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2742,10 +2745,10 @@
         <v>T006</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2756,13 +2759,13 @@
         <v>green</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -2784,10 +2787,10 @@
         <v>T007</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2798,13 +2801,13 @@
         <v>pink</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2826,10 +2829,10 @@
         <v>T008</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2840,13 +2843,13 @@
         <v>purple</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2868,10 +2871,10 @@
         <v>T009</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2882,13 +2885,13 @@
         <v>yellow</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="K46" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2910,10 +2913,10 @@
         <v>T010</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2924,13 +2927,13 @@
         <v>blue</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2952,10 +2955,10 @@
         <v>T011</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2966,13 +2969,13 @@
         <v>red</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2994,10 +2997,10 @@
         <v>T012</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3008,13 +3011,13 @@
         <v>green</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3036,10 +3039,10 @@
         <v>T013</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3050,13 +3053,13 @@
         <v>pink</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -3078,10 +3081,10 @@
         <v>T014</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3092,13 +3095,13 @@
         <v>purple</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3120,10 +3123,10 @@
         <v>T015</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3134,13 +3137,13 @@
         <v>yellow</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -3162,10 +3165,10 @@
         <v>T016</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3176,13 +3179,13 @@
         <v>blue</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -3204,10 +3207,10 @@
         <v>T017</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3218,13 +3221,13 @@
         <v>red</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3246,10 +3249,10 @@
         <v>T018</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3260,13 +3263,13 @@
         <v>green</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="K55" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3288,10 +3291,10 @@
         <v>T019</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G56" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3302,13 +3305,13 @@
         <v>pink</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3330,10 +3333,10 @@
         <v>T020</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G57" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3344,13 +3347,13 @@
         <v>purple</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K57" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3372,10 +3375,10 @@
         <v>T021</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G58" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3386,13 +3389,13 @@
         <v>yellow</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -3414,10 +3417,10 @@
         <v>T022</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G59" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3428,13 +3431,13 @@
         <v>blue</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -3456,10 +3459,10 @@
         <v>T023</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3470,13 +3473,13 @@
         <v>red</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -3498,10 +3501,10 @@
         <v>T024</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G61" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3512,13 +3515,13 @@
         <v>green</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -3540,10 +3543,10 @@
         <v>T025</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3554,13 +3557,13 @@
         <v>pink</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -3582,10 +3585,10 @@
         <v>T026</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3596,13 +3599,13 @@
         <v>purple</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -3624,10 +3627,10 @@
         <v>T027</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3638,13 +3641,13 @@
         <v>yellow</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -3666,10 +3669,10 @@
         <v>T028</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3680,13 +3683,13 @@
         <v>blue</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -3708,10 +3711,10 @@
         <v>T029</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3722,13 +3725,13 @@
         <v>red</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3750,10 +3753,10 @@
         <v>T030</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" ref="G67:G79" si="4">E67&amp;F67</f>
@@ -3764,13 +3767,13 @@
         <v>green</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -3792,10 +3795,10 @@
         <v>T031</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G68" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3806,13 +3809,13 @@
         <v>pink</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3830,10 +3833,10 @@
         <v>T032</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G69" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3844,13 +3847,13 @@
         <v>purple</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -3868,10 +3871,10 @@
         <v>T033</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G70" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3882,13 +3885,13 @@
         <v>yellow</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -3906,10 +3909,10 @@
         <v>T034</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G71" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3920,13 +3923,13 @@
         <v>blue</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="K71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -3944,10 +3947,10 @@
         <v>T035</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G72" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3958,13 +3961,13 @@
         <v>red</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -3982,10 +3985,10 @@
         <v>T036</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G73" s="1" t="str">
         <f t="shared" si="4"/>
@@ -3996,13 +3999,13 @@
         <v>green</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -4013,17 +4016,17 @@
         <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="3"/>
         <v>T037</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G74" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4034,10 +4037,10 @@
         <v>pink</v>
       </c>
       <c r="I74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4048,17 +4051,17 @@
         <v>41</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="3"/>
         <v>T038</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G75" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4069,10 +4072,10 @@
         <v>purple</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4083,17 +4086,17 @@
         <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="3"/>
         <v>T039</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G76" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4104,10 +4107,10 @@
         <v>yellow</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4118,17 +4121,17 @@
         <v>41</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="3"/>
         <v>T040</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G77" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4139,10 +4142,10 @@
         <v>blue</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -4153,17 +4156,17 @@
         <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="3"/>
         <v>T041</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G78" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4174,10 +4177,10 @@
         <v>red</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -4188,17 +4191,17 @@
         <v>41</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="3"/>
         <v>T042</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G79" s="4" t="str">
         <f t="shared" si="4"/>
@@ -4209,11 +4212,11 @@
         <v>green</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4231,10 +4234,10 @@
         <v>A001</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" ref="G80:G99" si="6">E80&amp;F80</f>
@@ -4256,10 +4259,10 @@
         <v>A002</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="6"/>
@@ -4281,10 +4284,10 @@
         <v>A003</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="6"/>
@@ -4306,10 +4309,10 @@
         <v>A004</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="6"/>
@@ -4331,10 +4334,10 @@
         <v>A005</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="6"/>
@@ -4356,10 +4359,10 @@
         <v>A006</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="6"/>
@@ -4381,10 +4384,10 @@
         <v>A007</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="6"/>
@@ -4406,10 +4409,10 @@
         <v>A008</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="6"/>
@@ -4431,10 +4434,10 @@
         <v>A009</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="6"/>
@@ -4455,11 +4458,11 @@
         <f t="shared" si="5"/>
         <v>A010</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>165</v>
+      <c r="E89" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G89" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4485,10 +4488,10 @@
         <v>A001</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="6"/>
@@ -4510,10 +4513,10 @@
         <v>A002</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="6"/>
@@ -4535,10 +4538,10 @@
         <v>A003</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="6"/>
@@ -4560,10 +4563,10 @@
         <v>A004</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="6"/>
@@ -4585,10 +4588,10 @@
         <v>A005</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="6"/>
@@ -4610,10 +4613,10 @@
         <v>D006</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="6"/>
@@ -4635,10 +4638,10 @@
         <v>D007</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="6"/>
@@ -4660,10 +4663,10 @@
         <v>D008</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="6"/>
@@ -4685,10 +4688,10 @@
         <v>D009</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="6"/>
@@ -4709,11 +4712,11 @@
         <f t="shared" si="5"/>
         <v>D010</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>166</v>
+      <c r="E99" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G99" s="5" t="str">
         <f t="shared" si="6"/>
@@ -4729,14 +4732,17 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="3"/>
-        <v>?001</v>
+        <v>R001</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4744,14 +4750,17 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="3"/>
-        <v>?002</v>
+        <v>R002</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4759,14 +4768,17 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="3"/>
-        <v>?003</v>
+        <v>R003</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4774,14 +4786,17 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="3"/>
-        <v>?004</v>
+        <v>R004</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4789,14 +4804,17 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="3"/>
-        <v>?005</v>
+        <v>R005</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4804,14 +4822,17 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="3"/>
-        <v>?006</v>
+        <v>R006</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/cards_excel.xlsx
+++ b/cards_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joey\Documents\GitHub\squeakincgames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF3A8CC-A9FC-4E3B-BDD2-EE0D1CCDE3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA34C721-70E8-424E-92DE-64D32FA21651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37BB8394-EF52-48F5-A788-81B0E26A37EA}"/>
   </bookViews>
@@ -594,9 +594,6 @@
     <t>VPs = Number of provinces times number of green tags x2</t>
   </si>
   <si>
-    <t>VPs = 6 times number of pink tags</t>
-  </si>
-  <si>
     <t>least to most valuble</t>
   </si>
   <si>
@@ -604,6 +601,9 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>VPs = 8 times number of pink tags</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03CA7A-BA1F-4EAD-976F-D40294DFF6D8}">
   <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1310,7 @@
         <v>79</v>
       </c>
       <c r="S6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="T6" t="s">
         <v>102</v>
@@ -1556,7 +1556,7 @@
         <v>172</v>
       </c>
       <c r="R12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>4</v>
@@ -4742,7 +4742,7 @@
         <v>R001</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>5</v>
@@ -4760,7 +4760,7 @@
         <v>R002</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -4768,7 +4768,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>6</v>
@@ -4778,7 +4778,7 @@
         <v>R003</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -4786,7 +4786,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>7</v>
@@ -4796,7 +4796,7 @@
         <v>R004</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -4804,7 +4804,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
@@ -4814,7 +4814,7 @@
         <v>R005</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -4822,7 +4822,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>9</v>
@@ -4832,7 +4832,7 @@
         <v>R006</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
